--- a/lab01/lab01/Datos/Datos de jugadores .xlsx
+++ b/lab01/lab01/Datos/Datos de jugadores .xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Lab01.1\lab01\lab01\lab01\Datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6499A281-7C13-42BC-90FC-AF943F1D7850}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C0B188D-A568-4A28-BC24-95520AD94C13}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{A1898A5A-807C-4991-AA1A-2EA200E4E8B0}"/>
+    <workbookView xWindow="660" yWindow="345" windowWidth="11175" windowHeight="7920" xr2:uid="{A1898A5A-807C-4991-AA1A-2EA200E4E8B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,21 +31,627 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>Nombre</t>
-  </si>
-  <si>
-    <t>Apellido</t>
-  </si>
-  <si>
-    <t>Posicion</t>
-  </si>
-  <si>
-    <t>Club</t>
-  </si>
-  <si>
-    <t>Salario</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="207">
+  <si>
+    <t>ATL</t>
+  </si>
+  <si>
+    <t>CHI</t>
+  </si>
+  <si>
+    <t>CLB</t>
+  </si>
+  <si>
+    <t>COL</t>
+  </si>
+  <si>
+    <t>Almiron</t>
+  </si>
+  <si>
+    <t>Ambrose</t>
+  </si>
+  <si>
+    <t>Asad</t>
+  </si>
+  <si>
+    <t>Bloom</t>
+  </si>
+  <si>
+    <t>Carleton</t>
+  </si>
+  <si>
+    <t>Carmona</t>
+  </si>
+  <si>
+    <t>Garza</t>
+  </si>
+  <si>
+    <t>Gonzalez Pirez</t>
+  </si>
+  <si>
+    <t>Goslin</t>
+  </si>
+  <si>
+    <t>Gressel</t>
+  </si>
+  <si>
+    <t>Heath</t>
+  </si>
+  <si>
+    <t>Jones</t>
+  </si>
+  <si>
+    <t>Kann</t>
+  </si>
+  <si>
+    <t>Kratz</t>
+  </si>
+  <si>
+    <t>Larentowicz</t>
+  </si>
+  <si>
+    <t>Loyd</t>
+  </si>
+  <si>
+    <t>Martinez</t>
+  </si>
+  <si>
+    <t>McCann</t>
+  </si>
+  <si>
+    <t>Mears</t>
+  </si>
+  <si>
+    <t>Oblitey Otoo</t>
+  </si>
+  <si>
+    <t>Parkhurst</t>
+  </si>
+  <si>
+    <t>Peterson</t>
+  </si>
+  <si>
+    <t>Reynish</t>
+  </si>
+  <si>
+    <t>Robinson</t>
+  </si>
+  <si>
+    <t>Rochez</t>
+  </si>
+  <si>
+    <t>Tambakis</t>
+  </si>
+  <si>
+    <t>Vazquez</t>
+  </si>
+  <si>
+    <t>Villalba</t>
+  </si>
+  <si>
+    <t>Walkes</t>
+  </si>
+  <si>
+    <t>Wheeler-Omiunu</t>
+  </si>
+  <si>
+    <t>Williams</t>
+  </si>
+  <si>
+    <t>Accam</t>
+  </si>
+  <si>
+    <t>Alvarez</t>
+  </si>
+  <si>
+    <t>Arshakyan</t>
+  </si>
+  <si>
+    <t>Bronico</t>
+  </si>
+  <si>
+    <t>Calistri</t>
+  </si>
+  <si>
+    <t>Campbell</t>
+  </si>
+  <si>
+    <t>Cleveland</t>
+  </si>
+  <si>
+    <t>Conner</t>
+  </si>
+  <si>
+    <t>De Leeuw</t>
+  </si>
+  <si>
+    <t>Dekovic</t>
+  </si>
+  <si>
+    <t>Doody</t>
+  </si>
+  <si>
+    <t>Fernandez</t>
+  </si>
+  <si>
+    <t>Goossens</t>
+  </si>
+  <si>
+    <t>Harrington</t>
+  </si>
+  <si>
+    <t>Johnson</t>
+  </si>
+  <si>
+    <t>Juninho</t>
+  </si>
+  <si>
+    <t>Kappelhof</t>
+  </si>
+  <si>
+    <t>Lampson</t>
+  </si>
+  <si>
+    <t>McCarty</t>
+  </si>
+  <si>
+    <t>Meira</t>
+  </si>
+  <si>
+    <t>Mihailovic</t>
+  </si>
+  <si>
+    <t>Nikolic</t>
+  </si>
+  <si>
+    <t>Polster</t>
+  </si>
+  <si>
+    <t>Rodrigo Bava</t>
+  </si>
+  <si>
+    <t>Schweinsteiger</t>
+  </si>
+  <si>
+    <t>Solignac</t>
+  </si>
+  <si>
+    <t>Vincent</t>
+  </si>
+  <si>
+    <t>Abu</t>
+  </si>
+  <si>
+    <t>Abubakar</t>
+  </si>
+  <si>
+    <t>Afful</t>
+  </si>
+  <si>
+    <t>Crognale</t>
+  </si>
+  <si>
+    <t>De Lima Junior</t>
+  </si>
+  <si>
+    <t>Duka</t>
+  </si>
+  <si>
+    <t>Finlay</t>
+  </si>
+  <si>
+    <t>Francis</t>
+  </si>
+  <si>
+    <t>Hansen</t>
+  </si>
+  <si>
+    <t>Higuain</t>
+  </si>
+  <si>
+    <t>Hollingsworth</t>
+  </si>
+  <si>
+    <t>Jahn</t>
+  </si>
+  <si>
+    <t>Jimenez</t>
+  </si>
+  <si>
+    <t>Kamara</t>
+  </si>
+  <si>
+    <t>Ketterer</t>
+  </si>
+  <si>
+    <t>Maloney</t>
+  </si>
+  <si>
+    <t>Manneh</t>
+  </si>
+  <si>
+    <t>Mensah</t>
+  </si>
+  <si>
+    <t>Meram</t>
+  </si>
+  <si>
+    <t>Naess</t>
+  </si>
+  <si>
+    <t>Obinwa</t>
+  </si>
+  <si>
+    <t>Raitala</t>
+  </si>
+  <si>
+    <t>Saravia</t>
+  </si>
+  <si>
+    <t>Sauro</t>
+  </si>
+  <si>
+    <t>Steffen</t>
+  </si>
+  <si>
+    <t>Stuver</t>
+  </si>
+  <si>
+    <t>Swanson</t>
+  </si>
+  <si>
+    <t>Trapp</t>
+  </si>
+  <si>
+    <t>Adjei-Boateng</t>
+  </si>
+  <si>
+    <t>Azira</t>
+  </si>
+  <si>
+    <t>Badji</t>
+  </si>
+  <si>
+    <t>Berner</t>
+  </si>
+  <si>
+    <t>Burling</t>
+  </si>
+  <si>
+    <t>Calvert</t>
+  </si>
+  <si>
+    <t>Castillo</t>
+  </si>
+  <si>
+    <t>Da Fonte</t>
+  </si>
+  <si>
+    <t>Doyle</t>
+  </si>
+  <si>
+    <t>Ford</t>
+  </si>
+  <si>
+    <t>Gashi</t>
+  </si>
+  <si>
+    <t>Gatt</t>
+  </si>
+  <si>
+    <t>Gordon</t>
+  </si>
+  <si>
+    <t>Hairston</t>
+  </si>
+  <si>
+    <t>Hamilton</t>
+  </si>
+  <si>
+    <t>Howard</t>
+  </si>
+  <si>
+    <t>MacMath</t>
+  </si>
+  <si>
+    <t>Miller</t>
+  </si>
+  <si>
+    <t>Jeffrey</t>
+  </si>
+  <si>
+    <t>Sam</t>
+  </si>
+  <si>
+    <t>Alexander</t>
+  </si>
+  <si>
+    <t>Harrison</t>
+  </si>
+  <si>
+    <t>Collin</t>
+  </si>
+  <si>
+    <t>Marshall</t>
+  </si>
+  <si>
+    <t>Miguel</t>
+  </si>
+  <si>
+    <t>Mikey</t>
+  </si>
+  <si>
+    <t>Yamil</t>
+  </si>
+  <si>
+    <t>Mark</t>
+  </si>
+  <si>
+    <t>Andrew</t>
+  </si>
+  <si>
+    <t>Carlos</t>
+  </si>
+  <si>
+    <t>Greg</t>
+  </si>
+  <si>
+    <t>Leandro</t>
+  </si>
+  <si>
+    <t>Chris</t>
+  </si>
+  <si>
+    <t>Julian</t>
+  </si>
+  <si>
+    <t>Kenwyne</t>
+  </si>
+  <si>
+    <t>Alec</t>
+  </si>
+  <si>
+    <t>Kevin</t>
+  </si>
+  <si>
+    <t>Jeff</t>
+  </si>
+  <si>
+    <t>Zach</t>
+  </si>
+  <si>
+    <t>Josef</t>
+  </si>
+  <si>
+    <t>Tyrone</t>
+  </si>
+  <si>
+    <t>Michael</t>
+  </si>
+  <si>
+    <t>Jacob</t>
+  </si>
+  <si>
+    <t>Kyle</t>
+  </si>
+  <si>
+    <t>Miles</t>
+  </si>
+  <si>
+    <t>Bryan</t>
+  </si>
+  <si>
+    <t>Brandon</t>
+  </si>
+  <si>
+    <t>Hector</t>
+  </si>
+  <si>
+    <t>Anton</t>
+  </si>
+  <si>
+    <t>Romario</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
+    <t>Arturo</t>
+  </si>
+  <si>
+    <t>Brandt</t>
+  </si>
+  <si>
+    <t>Joey</t>
+  </si>
+  <si>
+    <t>Jonathan</t>
+  </si>
+  <si>
+    <t>Stefan</t>
+  </si>
+  <si>
+    <t>Drew</t>
+  </si>
+  <si>
+    <t>Matej</t>
+  </si>
+  <si>
+    <t>Patrick</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>Daniel</t>
+  </si>
+  <si>
+    <t>Johan</t>
+  </si>
+  <si>
+    <t>Matt</t>
+  </si>
+  <si>
+    <t>Dax</t>
+  </si>
+  <si>
+    <t>Joao</t>
+  </si>
+  <si>
+    <t>Djordje</t>
+  </si>
+  <si>
+    <t>Nemanja</t>
+  </si>
+  <si>
+    <t>Jorge</t>
+  </si>
+  <si>
+    <t>Bastian</t>
+  </si>
+  <si>
+    <t>Luis</t>
+  </si>
+  <si>
+    <t>Mohammed</t>
+  </si>
+  <si>
+    <t>Alhassan "Lalas"</t>
+  </si>
+  <si>
+    <t>Alex</t>
+  </si>
+  <si>
+    <t>Artur</t>
+  </si>
+  <si>
+    <t>Dilly</t>
+  </si>
+  <si>
+    <t>Ethan</t>
+  </si>
+  <si>
+    <t>Waylon</t>
+  </si>
+  <si>
+    <t>Nikolaj</t>
+  </si>
+  <si>
+    <t>Federico</t>
+  </si>
+  <si>
+    <t>Adam</t>
+  </si>
+  <si>
+    <t>Ola</t>
+  </si>
+  <si>
+    <t>Logan</t>
+  </si>
+  <si>
+    <t>Connor</t>
+  </si>
+  <si>
+    <t>Kekuta</t>
+  </si>
+  <si>
+    <t>Cristian</t>
+  </si>
+  <si>
+    <t>Justin</t>
+  </si>
+  <si>
+    <t>Nicolai</t>
+  </si>
+  <si>
+    <t>Abuchi</t>
+  </si>
+  <si>
+    <t>Jukka</t>
+  </si>
+  <si>
+    <t>Rodrigo</t>
+  </si>
+  <si>
+    <t>Gaston</t>
+  </si>
+  <si>
+    <t>Zack</t>
+  </si>
+  <si>
+    <t>Brad</t>
+  </si>
+  <si>
+    <t>Ben</t>
+  </si>
+  <si>
+    <t>Wil</t>
+  </si>
+  <si>
+    <t>Josh</t>
+  </si>
+  <si>
+    <t>Bismark</t>
+  </si>
+  <si>
+    <t>Dominique</t>
+  </si>
+  <si>
+    <t>Bobby</t>
+  </si>
+  <si>
+    <t>Caleb</t>
+  </si>
+  <si>
+    <t>Dennis</t>
+  </si>
+  <si>
+    <t>Mike</t>
+  </si>
+  <si>
+    <t>Kortne</t>
+  </si>
+  <si>
+    <t>Shkelzen</t>
+  </si>
+  <si>
+    <t>Joshua</t>
+  </si>
+  <si>
+    <t>Alan</t>
+  </si>
+  <si>
+    <t>Marlon</t>
+  </si>
+  <si>
+    <t>Tim</t>
+  </si>
+  <si>
+    <t>Zac</t>
+  </si>
+  <si>
+    <t>Eric</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>GK</t>
+  </si>
+  <si>
+    <t>M-F</t>
+  </si>
+  <si>
+    <t>F-M</t>
+  </si>
+  <si>
+    <t>D-M</t>
   </si>
 </sst>
 </file>
@@ -397,10 +1003,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D777370-536C-4563-A55B-E10B05B790C9}">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A107" sqref="A107:G107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -417,89 +1023,2116 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
+      <c r="F1">
+        <v>1912500</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2</v>
       </c>
+      <c r="B2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>65625</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>3</v>
       </c>
+      <c r="B3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>200</v>
+      </c>
+      <c r="E3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>150000</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>4</v>
       </c>
+      <c r="B4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>201</v>
+      </c>
+      <c r="E4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>99225</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>5</v>
       </c>
+      <c r="B5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>202</v>
+      </c>
+      <c r="E5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>65000</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>6</v>
       </c>
+      <c r="B6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
+        <v>200</v>
+      </c>
+      <c r="E6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>675000</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>7</v>
       </c>
+      <c r="B7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
+        <v>201</v>
+      </c>
+      <c r="E7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>150000</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>8</v>
       </c>
+      <c r="B8" t="s">
+        <v>121</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" t="s">
+        <v>201</v>
+      </c>
+      <c r="E8" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>250008</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>9</v>
       </c>
+      <c r="B9" t="s">
+        <v>122</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" t="s">
+        <v>200</v>
+      </c>
+      <c r="E9" t="s">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>70000</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>10</v>
       </c>
+      <c r="B10" t="s">
+        <v>123</v>
+      </c>
+      <c r="C10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" t="s">
+        <v>200</v>
+      </c>
+      <c r="E10" t="s">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>75000</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>11</v>
       </c>
+      <c r="B11" t="s">
+        <v>111</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" t="s">
+        <v>200</v>
+      </c>
+      <c r="E11" t="s">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>66150</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>12</v>
       </c>
+      <c r="B12" t="s">
+        <v>124</v>
+      </c>
+      <c r="C12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" t="s">
+        <v>202</v>
+      </c>
+      <c r="E12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>390000</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>13</v>
       </c>
+      <c r="B13" t="s">
+        <v>125</v>
+      </c>
+      <c r="C13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" t="s">
+        <v>203</v>
+      </c>
+      <c r="E13" t="s">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>77004</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>14</v>
       </c>
+      <c r="B14" t="s">
+        <v>126</v>
+      </c>
+      <c r="C14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" t="s">
+        <v>200</v>
+      </c>
+      <c r="E14" t="s">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>150000</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>15</v>
+      </c>
+      <c r="B15" t="s">
+        <v>127</v>
+      </c>
+      <c r="C15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" t="s">
+        <v>200</v>
+      </c>
+      <c r="E15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>175008</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>128</v>
+      </c>
+      <c r="C16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" t="s">
+        <v>201</v>
+      </c>
+      <c r="E16" t="s">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>85008</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>17</v>
+      </c>
+      <c r="B17" t="s">
+        <v>129</v>
+      </c>
+      <c r="C17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" t="s">
+        <v>202</v>
+      </c>
+      <c r="E17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>924000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>18</v>
+      </c>
+      <c r="B18" t="s">
+        <v>122</v>
+      </c>
+      <c r="C18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" t="s">
+        <v>200</v>
+      </c>
+      <c r="E18" t="s">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>540000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>19</v>
+      </c>
+      <c r="B19" t="s">
+        <v>130</v>
+      </c>
+      <c r="C19" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" t="s">
+        <v>201</v>
+      </c>
+      <c r="E19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>183756</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>20</v>
+      </c>
+      <c r="B20" t="s">
+        <v>108</v>
+      </c>
+      <c r="C20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" t="s">
+        <v>204</v>
+      </c>
+      <c r="E20" t="s">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>53000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>21</v>
+      </c>
+      <c r="B21" t="s">
+        <v>131</v>
+      </c>
+      <c r="C21" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" t="s">
+        <v>201</v>
+      </c>
+      <c r="E21" t="s">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>325008</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>22</v>
+      </c>
+      <c r="B22" t="s">
+        <v>132</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
+        <v>202</v>
+      </c>
+      <c r="E22" t="s">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>165300</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>133</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>203</v>
+      </c>
+      <c r="E23" t="s">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>65004</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>134</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>201</v>
+      </c>
+      <c r="E24" t="s">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>125000.04</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>135</v>
+      </c>
+      <c r="C25" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" t="s">
+        <v>202</v>
+      </c>
+      <c r="E25" t="s">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>26</v>
+      </c>
+      <c r="B26" t="s">
+        <v>110</v>
+      </c>
+      <c r="C26" t="s">
+        <v>29</v>
+      </c>
+      <c r="D26" t="s">
+        <v>203</v>
+      </c>
+      <c r="E26" t="s">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>65004</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>27</v>
+      </c>
+      <c r="B27" t="s">
+        <v>136</v>
+      </c>
+      <c r="C27" t="s">
+        <v>30</v>
+      </c>
+      <c r="D27" t="s">
+        <v>202</v>
+      </c>
+      <c r="E27" t="s">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>100008</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>28</v>
+      </c>
+      <c r="B28" t="s">
+        <v>137</v>
+      </c>
+      <c r="C28" t="s">
+        <v>31</v>
+      </c>
+      <c r="D28" t="s">
+        <v>202</v>
+      </c>
+      <c r="E28" t="s">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>663000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>29</v>
+      </c>
+      <c r="B29" t="s">
+        <v>138</v>
+      </c>
+      <c r="C29" t="s">
+        <v>32</v>
+      </c>
+      <c r="D29" t="s">
+        <v>201</v>
+      </c>
+      <c r="E29" t="s">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>53004</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>30</v>
+      </c>
+      <c r="B30" t="s">
+        <v>118</v>
+      </c>
+      <c r="C30" t="s">
+        <v>33</v>
+      </c>
+      <c r="D30" t="s">
+        <v>200</v>
+      </c>
+      <c r="E30" t="s">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>53004</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>31</v>
+      </c>
+      <c r="B31" t="s">
+        <v>139</v>
+      </c>
+      <c r="C31" t="s">
+        <v>34</v>
+      </c>
+      <c r="D31" t="s">
+        <v>202</v>
+      </c>
+      <c r="E31" t="s">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>65000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>32</v>
+      </c>
+      <c r="B32" t="s">
+        <v>140</v>
+      </c>
+      <c r="C32" t="s">
+        <v>35</v>
+      </c>
+      <c r="D32" t="s">
+        <v>205</v>
+      </c>
+      <c r="E32" t="s">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>750000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>33</v>
+      </c>
+      <c r="B33" t="s">
+        <v>141</v>
+      </c>
+      <c r="C33" t="s">
+        <v>36</v>
+      </c>
+      <c r="D33" t="s">
+        <v>200</v>
+      </c>
+      <c r="E33" t="s">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>135000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>34</v>
+      </c>
+      <c r="B34" t="s">
+        <v>140</v>
+      </c>
+      <c r="C34" t="s">
+        <v>37</v>
+      </c>
+      <c r="D34" t="s">
+        <v>202</v>
+      </c>
+      <c r="E34" t="s">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>156000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>35</v>
+      </c>
+      <c r="B35" t="s">
+        <v>142</v>
+      </c>
+      <c r="C35" t="s">
+        <v>38</v>
+      </c>
+      <c r="D35" t="s">
+        <v>200</v>
+      </c>
+      <c r="E35" t="s">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>65004</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>36</v>
+      </c>
+      <c r="B36" t="s">
+        <v>143</v>
+      </c>
+      <c r="C36" t="s">
+        <v>39</v>
+      </c>
+      <c r="D36" t="s">
+        <v>200</v>
+      </c>
+      <c r="E36" t="s">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>54075</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>37</v>
+      </c>
+      <c r="B37" t="s">
+        <v>144</v>
+      </c>
+      <c r="C37" t="s">
+        <v>40</v>
+      </c>
+      <c r="D37" t="s">
+        <v>201</v>
+      </c>
+      <c r="E37" t="s">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>101750</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>38</v>
+      </c>
+      <c r="B38" t="s">
+        <v>145</v>
+      </c>
+      <c r="C38" t="s">
+        <v>41</v>
+      </c>
+      <c r="D38" t="s">
+        <v>203</v>
+      </c>
+      <c r="E38" t="s">
+        <v>1</v>
+      </c>
+      <c r="F38">
+        <v>53004</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>39</v>
+      </c>
+      <c r="B39" t="s">
+        <v>146</v>
+      </c>
+      <c r="C39" t="s">
+        <v>42</v>
+      </c>
+      <c r="D39" t="s">
+        <v>200</v>
+      </c>
+      <c r="E39" t="s">
+        <v>1</v>
+      </c>
+      <c r="F39">
+        <v>65625</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>40</v>
+      </c>
+      <c r="B40" t="s">
+        <v>131</v>
+      </c>
+      <c r="C40" t="s">
+        <v>43</v>
+      </c>
+      <c r="D40" t="s">
+        <v>202</v>
+      </c>
+      <c r="E40" t="s">
+        <v>1</v>
+      </c>
+      <c r="F40">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>41</v>
+      </c>
+      <c r="B41" t="s">
+        <v>147</v>
+      </c>
+      <c r="C41" t="s">
+        <v>44</v>
+      </c>
+      <c r="D41" t="s">
+        <v>201</v>
+      </c>
+      <c r="E41" t="s">
+        <v>1</v>
+      </c>
+      <c r="F41">
+        <v>65004</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>42</v>
+      </c>
+      <c r="B42" t="s">
+        <v>148</v>
+      </c>
+      <c r="C42" t="s">
+        <v>45</v>
+      </c>
+      <c r="D42" t="s">
+        <v>201</v>
+      </c>
+      <c r="E42" t="s">
+        <v>1</v>
+      </c>
+      <c r="F42">
+        <v>65000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>43</v>
+      </c>
+      <c r="B43" t="s">
+        <v>112</v>
+      </c>
+      <c r="C43" t="s">
+        <v>46</v>
+      </c>
+      <c r="D43" t="s">
+        <v>200</v>
+      </c>
+      <c r="E43" t="s">
+        <v>1</v>
+      </c>
+      <c r="F43">
+        <v>85000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>44</v>
+      </c>
+      <c r="B44" t="s">
+        <v>149</v>
+      </c>
+      <c r="C44" t="s">
+        <v>47</v>
+      </c>
+      <c r="D44" t="s">
+        <v>200</v>
+      </c>
+      <c r="E44" t="s">
+        <v>1</v>
+      </c>
+      <c r="F44">
+        <v>230000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>45</v>
+      </c>
+      <c r="B45" t="s">
+        <v>131</v>
+      </c>
+      <c r="C45" t="s">
+        <v>48</v>
+      </c>
+      <c r="D45" t="s">
+        <v>201</v>
+      </c>
+      <c r="E45" t="s">
+        <v>1</v>
+      </c>
+      <c r="F45">
+        <v>135000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>46</v>
+      </c>
+      <c r="B46" t="s">
+        <v>150</v>
+      </c>
+      <c r="C46" t="s">
+        <v>49</v>
+      </c>
+      <c r="D46" t="s">
+        <v>200</v>
+      </c>
+      <c r="E46" t="s">
+        <v>1</v>
+      </c>
+      <c r="F46">
+        <v>65004</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>47</v>
+      </c>
+      <c r="C47" t="s">
+        <v>50</v>
+      </c>
+      <c r="D47" t="s">
+        <v>200</v>
+      </c>
+      <c r="E47" t="s">
+        <v>1</v>
+      </c>
+      <c r="F47">
+        <v>700008</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>48</v>
+      </c>
+      <c r="B48" t="s">
+        <v>151</v>
+      </c>
+      <c r="C48" t="s">
+        <v>51</v>
+      </c>
+      <c r="D48" t="s">
+        <v>201</v>
+      </c>
+      <c r="E48" t="s">
+        <v>1</v>
+      </c>
+      <c r="F48">
+        <v>530000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>49</v>
+      </c>
+      <c r="B49" t="s">
+        <v>152</v>
+      </c>
+      <c r="C49" t="s">
+        <v>52</v>
+      </c>
+      <c r="D49" t="s">
+        <v>203</v>
+      </c>
+      <c r="E49" t="s">
+        <v>1</v>
+      </c>
+      <c r="F49">
+        <v>76000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>50</v>
+      </c>
+      <c r="B50" t="s">
+        <v>153</v>
+      </c>
+      <c r="C50" t="s">
+        <v>53</v>
+      </c>
+      <c r="D50" t="s">
+        <v>200</v>
+      </c>
+      <c r="E50" t="s">
+        <v>1</v>
+      </c>
+      <c r="F50">
+        <v>400000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>51</v>
+      </c>
+      <c r="B51" t="s">
+        <v>154</v>
+      </c>
+      <c r="C51" t="s">
+        <v>54</v>
+      </c>
+      <c r="D51" t="s">
+        <v>206</v>
+      </c>
+      <c r="E51" t="s">
+        <v>1</v>
+      </c>
+      <c r="F51">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>52</v>
+      </c>
+      <c r="B52" t="s">
+        <v>155</v>
+      </c>
+      <c r="C52" t="s">
+        <v>55</v>
+      </c>
+      <c r="D52" t="s">
+        <v>200</v>
+      </c>
+      <c r="E52" t="s">
+        <v>1</v>
+      </c>
+      <c r="F52">
+        <v>80000.039999999994</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>53</v>
+      </c>
+      <c r="B53" t="s">
+        <v>156</v>
+      </c>
+      <c r="C53" t="s">
+        <v>56</v>
+      </c>
+      <c r="D53" t="s">
+        <v>202</v>
+      </c>
+      <c r="E53" t="s">
+        <v>1</v>
+      </c>
+      <c r="F53">
+        <v>1700000.04</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>54</v>
+      </c>
+      <c r="B54" t="s">
+        <v>152</v>
+      </c>
+      <c r="C54" t="s">
+        <v>57</v>
+      </c>
+      <c r="D54" t="s">
+        <v>200</v>
+      </c>
+      <c r="E54" t="s">
+        <v>1</v>
+      </c>
+      <c r="F54">
+        <v>99900</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>55</v>
+      </c>
+      <c r="B55" t="s">
+        <v>157</v>
+      </c>
+      <c r="C55" t="s">
+        <v>58</v>
+      </c>
+      <c r="D55" t="s">
+        <v>203</v>
+      </c>
+      <c r="E55" t="s">
+        <v>1</v>
+      </c>
+      <c r="F55">
+        <v>240000</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>56</v>
+      </c>
+      <c r="B56" t="s">
+        <v>158</v>
+      </c>
+      <c r="C56" t="s">
+        <v>59</v>
+      </c>
+      <c r="D56" t="s">
+        <v>200</v>
+      </c>
+      <c r="E56" t="s">
+        <v>1</v>
+      </c>
+      <c r="F56">
+        <v>5400000</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>57</v>
+      </c>
+      <c r="B57" t="s">
+        <v>159</v>
+      </c>
+      <c r="C57" t="s">
+        <v>60</v>
+      </c>
+      <c r="D57" t="s">
+        <v>202</v>
+      </c>
+      <c r="E57" t="s">
+        <v>1</v>
+      </c>
+      <c r="F57">
+        <v>274999.92</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>58</v>
+      </c>
+      <c r="B58" t="s">
+        <v>136</v>
+      </c>
+      <c r="C58" t="s">
+        <v>61</v>
+      </c>
+      <c r="D58" t="s">
+        <v>201</v>
+      </c>
+      <c r="E58" t="s">
+        <v>1</v>
+      </c>
+      <c r="F58">
+        <v>96250</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>59</v>
+      </c>
+      <c r="B59" t="s">
+        <v>160</v>
+      </c>
+      <c r="C59" t="s">
+        <v>62</v>
+      </c>
+      <c r="D59" t="s">
+        <v>200</v>
+      </c>
+      <c r="E59" t="s">
+        <v>2</v>
+      </c>
+      <c r="F59">
+        <v>165000</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>60</v>
+      </c>
+      <c r="B60" t="s">
+        <v>161</v>
+      </c>
+      <c r="C60" t="s">
+        <v>63</v>
+      </c>
+      <c r="D60" t="s">
+        <v>201</v>
+      </c>
+      <c r="E60" t="s">
+        <v>2</v>
+      </c>
+      <c r="F60">
+        <v>65000.04</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>61</v>
+      </c>
+      <c r="B61" t="s">
+        <v>111</v>
+      </c>
+      <c r="C61" t="s">
+        <v>64</v>
+      </c>
+      <c r="D61" t="s">
+        <v>201</v>
+      </c>
+      <c r="E61" t="s">
+        <v>2</v>
+      </c>
+      <c r="F61">
+        <v>280000</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>62</v>
+      </c>
+      <c r="B62" t="s">
+        <v>162</v>
+      </c>
+      <c r="C62" t="s">
+        <v>65</v>
+      </c>
+      <c r="D62" t="s">
+        <v>201</v>
+      </c>
+      <c r="E62" t="s">
+        <v>2</v>
+      </c>
+      <c r="F62">
+        <v>84996</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>63</v>
+      </c>
+      <c r="B63" t="s">
+        <v>163</v>
+      </c>
+      <c r="C63" t="s">
+        <v>66</v>
+      </c>
+      <c r="D63" t="s">
+        <v>200</v>
+      </c>
+      <c r="E63" t="s">
+        <v>2</v>
+      </c>
+      <c r="F63">
+        <v>80004</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>64</v>
+      </c>
+      <c r="B64" t="s">
+        <v>164</v>
+      </c>
+      <c r="C64" t="s">
+        <v>67</v>
+      </c>
+      <c r="D64" t="s">
+        <v>200</v>
+      </c>
+      <c r="E64" t="s">
+        <v>2</v>
+      </c>
+      <c r="F64">
+        <v>175000</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>65</v>
+      </c>
+      <c r="B65" t="s">
+        <v>165</v>
+      </c>
+      <c r="C65" t="s">
+        <v>68</v>
+      </c>
+      <c r="D65" t="s">
+        <v>200</v>
+      </c>
+      <c r="E65" t="s">
+        <v>2</v>
+      </c>
+      <c r="F65">
+        <v>290000</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>66</v>
+      </c>
+      <c r="B66" t="s">
+        <v>166</v>
+      </c>
+      <c r="C66" t="s">
+        <v>69</v>
+      </c>
+      <c r="D66" t="s">
+        <v>201</v>
+      </c>
+      <c r="E66" t="s">
+        <v>2</v>
+      </c>
+      <c r="F66">
+        <v>227500</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>67</v>
+      </c>
+      <c r="B67" t="s">
+        <v>167</v>
+      </c>
+      <c r="C67" t="s">
+        <v>70</v>
+      </c>
+      <c r="D67" t="s">
+        <v>202</v>
+      </c>
+      <c r="E67" t="s">
+        <v>2</v>
+      </c>
+      <c r="F67">
+        <v>65000.04</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>68</v>
+      </c>
+      <c r="B68" t="s">
+        <v>168</v>
+      </c>
+      <c r="C68" t="s">
+        <v>71</v>
+      </c>
+      <c r="D68" t="s">
+        <v>200</v>
+      </c>
+      <c r="E68" t="s">
+        <v>2</v>
+      </c>
+      <c r="F68">
+        <v>1050000</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>69</v>
+      </c>
+      <c r="B69" t="s">
+        <v>113</v>
+      </c>
+      <c r="C69" t="s">
+        <v>72</v>
+      </c>
+      <c r="D69" t="s">
+        <v>200</v>
+      </c>
+      <c r="E69" t="s">
+        <v>2</v>
+      </c>
+      <c r="F69">
+        <v>54075</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>70</v>
+      </c>
+      <c r="B70" t="s">
+        <v>169</v>
+      </c>
+      <c r="C70" t="s">
+        <v>73</v>
+      </c>
+      <c r="D70" t="s">
+        <v>202</v>
+      </c>
+      <c r="E70" t="s">
+        <v>2</v>
+      </c>
+      <c r="F70">
+        <v>92500</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>71</v>
+      </c>
+      <c r="B71" t="s">
+        <v>137</v>
+      </c>
+      <c r="C71" t="s">
+        <v>74</v>
+      </c>
+      <c r="D71" t="s">
+        <v>200</v>
+      </c>
+      <c r="E71" t="s">
+        <v>2</v>
+      </c>
+      <c r="F71">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>72</v>
+      </c>
+      <c r="B72" t="s">
+        <v>170</v>
+      </c>
+      <c r="C72" t="s">
+        <v>75</v>
+      </c>
+      <c r="D72" t="s">
+        <v>202</v>
+      </c>
+      <c r="E72" t="s">
+        <v>2</v>
+      </c>
+      <c r="F72">
+        <v>450000</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>73</v>
+      </c>
+      <c r="B73" t="s">
+        <v>171</v>
+      </c>
+      <c r="C73" t="s">
+        <v>76</v>
+      </c>
+      <c r="D73" t="s">
+        <v>203</v>
+      </c>
+      <c r="E73" t="s">
+        <v>2</v>
+      </c>
+      <c r="F73">
+        <v>53004</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>74</v>
+      </c>
+      <c r="B74" t="s">
+        <v>172</v>
+      </c>
+      <c r="C74" t="s">
+        <v>77</v>
+      </c>
+      <c r="D74" t="s">
+        <v>201</v>
+      </c>
+      <c r="E74" t="s">
+        <v>2</v>
+      </c>
+      <c r="F74">
+        <v>53004</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>75</v>
+      </c>
+      <c r="B75" t="s">
+        <v>173</v>
+      </c>
+      <c r="C75" t="s">
+        <v>78</v>
+      </c>
+      <c r="D75" t="s">
+        <v>204</v>
+      </c>
+      <c r="E75" t="s">
+        <v>2</v>
+      </c>
+      <c r="F75">
+        <v>138875</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>76</v>
+      </c>
+      <c r="B76" t="s">
+        <v>174</v>
+      </c>
+      <c r="C76" t="s">
+        <v>20</v>
+      </c>
+      <c r="D76" t="s">
+        <v>200</v>
+      </c>
+      <c r="E76" t="s">
+        <v>2</v>
+      </c>
+      <c r="F76">
+        <v>65633.399999999994</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>77</v>
+      </c>
+      <c r="B77" t="s">
+        <v>144</v>
+      </c>
+      <c r="C77" t="s">
+        <v>79</v>
+      </c>
+      <c r="D77" t="s">
+        <v>201</v>
+      </c>
+      <c r="E77" t="s">
+        <v>2</v>
+      </c>
+      <c r="F77">
+        <v>750000</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>78</v>
+      </c>
+      <c r="B78" t="s">
+        <v>175</v>
+      </c>
+      <c r="C78" t="s">
+        <v>80</v>
+      </c>
+      <c r="D78" t="s">
+        <v>200</v>
+      </c>
+      <c r="E78" t="s">
+        <v>2</v>
+      </c>
+      <c r="F78">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>79</v>
+      </c>
+      <c r="B79" t="s">
+        <v>176</v>
+      </c>
+      <c r="C79" t="s">
+        <v>81</v>
+      </c>
+      <c r="D79" t="s">
+        <v>201</v>
+      </c>
+      <c r="E79" t="s">
+        <v>2</v>
+      </c>
+      <c r="F79">
+        <v>235000</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>80</v>
+      </c>
+      <c r="B80" t="s">
+        <v>177</v>
+      </c>
+      <c r="C80" t="s">
+        <v>82</v>
+      </c>
+      <c r="D80" t="s">
+        <v>200</v>
+      </c>
+      <c r="E80" t="s">
+        <v>2</v>
+      </c>
+      <c r="F80">
+        <v>65004</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>81</v>
+      </c>
+      <c r="B81" t="s">
+        <v>178</v>
+      </c>
+      <c r="C81" t="s">
+        <v>83</v>
+      </c>
+      <c r="D81" t="s">
+        <v>201</v>
+      </c>
+      <c r="E81" t="s">
+        <v>2</v>
+      </c>
+      <c r="F81">
+        <v>125004</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>82</v>
+      </c>
+      <c r="B82" t="s">
+        <v>179</v>
+      </c>
+      <c r="C82" t="s">
+        <v>84</v>
+      </c>
+      <c r="D82" t="s">
+        <v>200</v>
+      </c>
+      <c r="E82" t="s">
+        <v>2</v>
+      </c>
+      <c r="F82">
+        <v>65625</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>83</v>
+      </c>
+      <c r="B83" t="s">
+        <v>180</v>
+      </c>
+      <c r="C83" t="s">
+        <v>85</v>
+      </c>
+      <c r="D83" t="s">
+        <v>201</v>
+      </c>
+      <c r="E83" t="s">
+        <v>2</v>
+      </c>
+      <c r="F83">
+        <v>585000</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>84</v>
+      </c>
+      <c r="B84" t="s">
+        <v>181</v>
+      </c>
+      <c r="C84" t="s">
+        <v>86</v>
+      </c>
+      <c r="D84" t="s">
+        <v>203</v>
+      </c>
+      <c r="E84" t="s">
+        <v>2</v>
+      </c>
+      <c r="F84">
+        <v>105000</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>85</v>
+      </c>
+      <c r="B85" t="s">
+        <v>182</v>
+      </c>
+      <c r="C85" t="s">
+        <v>87</v>
+      </c>
+      <c r="D85" t="s">
+        <v>203</v>
+      </c>
+      <c r="E85" t="s">
+        <v>2</v>
+      </c>
+      <c r="F85">
+        <v>80004</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>86</v>
+      </c>
+      <c r="B86" t="s">
+        <v>183</v>
+      </c>
+      <c r="C86" t="s">
+        <v>88</v>
+      </c>
+      <c r="D86" t="s">
+        <v>200</v>
+      </c>
+      <c r="E86" t="s">
+        <v>2</v>
+      </c>
+      <c r="F86">
+        <v>85000</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>87</v>
+      </c>
+      <c r="B87" t="s">
+        <v>184</v>
+      </c>
+      <c r="C87" t="s">
+        <v>89</v>
+      </c>
+      <c r="D87" t="s">
+        <v>200</v>
+      </c>
+      <c r="E87" t="s">
+        <v>2</v>
+      </c>
+      <c r="F87">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>88</v>
+      </c>
+      <c r="B88" t="s">
+        <v>185</v>
+      </c>
+      <c r="C88" t="s">
+        <v>34</v>
+      </c>
+      <c r="D88" t="s">
+        <v>201</v>
+      </c>
+      <c r="E88" t="s">
+        <v>2</v>
+      </c>
+      <c r="F88">
+        <v>110004</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>89</v>
+      </c>
+      <c r="B89" t="s">
+        <v>186</v>
+      </c>
+      <c r="C89" t="s">
+        <v>90</v>
+      </c>
+      <c r="D89" t="s">
+        <v>200</v>
+      </c>
+      <c r="E89" t="s">
+        <v>3</v>
+      </c>
+      <c r="F89">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>90</v>
+      </c>
+      <c r="B90" t="s">
+        <v>131</v>
+      </c>
+      <c r="C90" t="s">
+        <v>91</v>
+      </c>
+      <c r="D90" t="s">
+        <v>200</v>
+      </c>
+      <c r="E90" t="s">
+        <v>3</v>
+      </c>
+      <c r="F90">
+        <v>110000</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>91</v>
+      </c>
+      <c r="B91" t="s">
+        <v>187</v>
+      </c>
+      <c r="C91" t="s">
+        <v>92</v>
+      </c>
+      <c r="D91" t="s">
+        <v>202</v>
+      </c>
+      <c r="E91" t="s">
+        <v>3</v>
+      </c>
+      <c r="F91">
+        <v>65000</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>92</v>
+      </c>
+      <c r="B92" t="s">
+        <v>149</v>
+      </c>
+      <c r="C92" t="s">
+        <v>93</v>
+      </c>
+      <c r="D92" t="s">
+        <v>203</v>
+      </c>
+      <c r="E92" t="s">
+        <v>3</v>
+      </c>
+      <c r="F92">
+        <v>66150</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>93</v>
+      </c>
+      <c r="B93" t="s">
+        <v>188</v>
+      </c>
+      <c r="C93" t="s">
+        <v>94</v>
+      </c>
+      <c r="D93" t="s">
+        <v>201</v>
+      </c>
+      <c r="E93" t="s">
+        <v>3</v>
+      </c>
+      <c r="F93">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>94</v>
+      </c>
+      <c r="B94" t="s">
+        <v>189</v>
+      </c>
+      <c r="C94" t="s">
+        <v>95</v>
+      </c>
+      <c r="D94" t="s">
+        <v>202</v>
+      </c>
+      <c r="E94" t="s">
+        <v>3</v>
+      </c>
+      <c r="F94">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>95</v>
+      </c>
+      <c r="B95" t="s">
+        <v>190</v>
+      </c>
+      <c r="C95" t="s">
+        <v>96</v>
+      </c>
+      <c r="D95" t="s">
+        <v>201</v>
+      </c>
+      <c r="E95" t="s">
+        <v>3</v>
+      </c>
+      <c r="F95">
+        <v>54075</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>96</v>
+      </c>
+      <c r="B96" t="s">
+        <v>191</v>
+      </c>
+      <c r="C96" t="s">
+        <v>97</v>
+      </c>
+      <c r="D96" t="s">
+        <v>201</v>
+      </c>
+      <c r="E96" t="s">
+        <v>3</v>
+      </c>
+      <c r="F96">
+        <v>65004</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>97</v>
+      </c>
+      <c r="B97" t="s">
+        <v>126</v>
+      </c>
+      <c r="C97" t="s">
+        <v>98</v>
+      </c>
+      <c r="D97" t="s">
+        <v>202</v>
+      </c>
+      <c r="E97" t="s">
+        <v>3</v>
+      </c>
+      <c r="F97">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>98</v>
+      </c>
+      <c r="B98" t="s">
+        <v>192</v>
+      </c>
+      <c r="C98" t="s">
+        <v>99</v>
+      </c>
+      <c r="D98" t="s">
+        <v>201</v>
+      </c>
+      <c r="E98" t="s">
+        <v>3</v>
+      </c>
+      <c r="F98">
+        <v>69996</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>99</v>
+      </c>
+      <c r="B99" t="s">
+        <v>193</v>
+      </c>
+      <c r="C99" t="s">
+        <v>100</v>
+      </c>
+      <c r="D99" t="s">
+        <v>202</v>
+      </c>
+      <c r="E99" t="s">
+        <v>3</v>
+      </c>
+      <c r="F99">
+        <v>1575000</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>100</v>
+      </c>
+      <c r="B100" t="s">
+        <v>194</v>
+      </c>
+      <c r="C100" t="s">
+        <v>101</v>
+      </c>
+      <c r="D100" t="s">
+        <v>200</v>
+      </c>
+      <c r="E100" t="s">
+        <v>3</v>
+      </c>
+      <c r="F100">
+        <v>175008</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>101</v>
+      </c>
+      <c r="B101" t="s">
+        <v>195</v>
+      </c>
+      <c r="C101" t="s">
+        <v>102</v>
+      </c>
+      <c r="D101" t="s">
+        <v>202</v>
+      </c>
+      <c r="E101" t="s">
+        <v>3</v>
+      </c>
+      <c r="F101">
+        <v>180000</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>102</v>
+      </c>
+      <c r="B102" t="s">
+        <v>196</v>
+      </c>
+      <c r="C102" t="s">
+        <v>103</v>
+      </c>
+      <c r="D102" t="s">
+        <v>206</v>
+      </c>
+      <c r="E102" t="s">
+        <v>3</v>
+      </c>
+      <c r="F102">
+        <v>110004</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>103</v>
+      </c>
+      <c r="B103" t="s">
+        <v>109</v>
+      </c>
+      <c r="C103" t="s">
+        <v>104</v>
+      </c>
+      <c r="D103" t="s">
+        <v>200</v>
+      </c>
+      <c r="E103" t="s">
+        <v>3</v>
+      </c>
+      <c r="F103">
+        <v>65004</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>104</v>
+      </c>
+      <c r="B104" t="s">
+        <v>197</v>
+      </c>
+      <c r="C104" t="s">
+        <v>105</v>
+      </c>
+      <c r="D104" t="s">
+        <v>203</v>
+      </c>
+      <c r="E104" t="s">
+        <v>3</v>
+      </c>
+      <c r="F104">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>105</v>
+      </c>
+      <c r="B105" t="s">
+        <v>198</v>
+      </c>
+      <c r="C105" t="s">
+        <v>106</v>
+      </c>
+      <c r="D105" t="s">
+        <v>203</v>
+      </c>
+      <c r="E105" t="s">
+        <v>3</v>
+      </c>
+      <c r="F105">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>106</v>
+      </c>
+      <c r="B106" t="s">
+        <v>199</v>
+      </c>
+      <c r="C106" t="s">
+        <v>107</v>
+      </c>
+      <c r="D106" t="s">
+        <v>201</v>
+      </c>
+      <c r="E106" t="s">
+        <v>3</v>
+      </c>
+      <c r="F106">
+        <v>75553.75</v>
       </c>
     </row>
   </sheetData>
